--- a/ResultsByUHF20230726/DailyProjections_citywide20230726.xlsx
+++ b/ResultsByUHF20230726/DailyProjections_citywide20230726.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3507 (1832, 6035)</t>
+          <t>3548 (1842, 6153)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>172 (104, 293)</t>
+          <t>177 (106, 299)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16 (7, 30)</t>
+          <t>16 (7, 31)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>2 (1, 5)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>27 (15, 47)</t>
+          <t>27 (15, 46)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3421 (1910, 5909)</t>
+          <t>3474 (1925, 6018)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>167 (101, 289)</t>
+          <t>174 (104, 296)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14 (6, 29)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4 (2, 6)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>26 (14, 46)</t>
+          <t>26 (14, 45)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3346 (1943, 5955)</t>
+          <t>3403 (1962, 6076)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>166 (100, 286)</t>
+          <t>174 (104, 295)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3288 (1943, 6045)</t>
+          <t>3358 (1975, 6203)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>167 (100, 287)</t>
+          <t>175 (105, 297)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18 (10, 33)</t>
+          <t>18 (10, 34)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13 (6, 27)</t>
+          <t>14 (6, 27)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4 (2, 6)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>29 (17, 50)</t>
+          <t>30 (17, 50)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3246 (1929, 6180)</t>
+          <t>3330 (1965, 6346)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>168 (100, 288)</t>
+          <t>176 (105, 300)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18 (10, 32)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>14 (6, 27)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>28 (16, 49)</t>
+          <t>29 (16, 49)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3232 (1905, 6298)</t>
+          <t>3326 (1949, 6490)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>168 (99, 291)</t>
+          <t>177 (105, 303)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17 (10, 32)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>14 (6, 27)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>27 (15, 47)</t>
+          <t>27 (15, 48)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21 (10, 40)</t>
+          <t>22 (11, 41)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3225 (1880, 6427)</t>
+          <t>3331 (1931, 6656)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>168 (98, 293)</t>
+          <t>177 (105, 306)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>25 (14, 46)</t>
+          <t>26 (14, 46)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20 (10, 39)</t>
+          <t>21 (10, 39)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3246 (1862, 6607)</t>
+          <t>3369 (1921, 6852)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>168 (98, 296)</t>
+          <t>178 (105, 310)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13 (6, 27)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>24 (13, 44)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19 (9, 38)</t>
+          <t>20 (9, 38)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3287 (1852, 6802)</t>
+          <t>3425 (1917, 7088)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>168 (98, 299)</t>
+          <t>179 (105, 315)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17 (9, 33)</t>
+          <t>18 (10, 34)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>23 (13, 43)</t>
+          <t>24 (13, 43)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18 (8, 36)</t>
+          <t>19 (9, 37)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3326 (1842, 6999)</t>
+          <t>3484 (1906, 7332)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>168 (97, 303)</t>
+          <t>180 (105, 321)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17 (9, 33)</t>
+          <t>18 (10, 35)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>14 (7, 29)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>22 (12, 42)</t>
+          <t>23 (12, 42)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17 (8, 35)</t>
+          <t>18 (8, 36)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1228,27 +1228,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3371 (1828, 7212)</t>
+          <t>3538 (1898, 7570)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>169 (97, 309)</t>
+          <t>181 (105, 327)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17 (9, 34)</t>
+          <t>18 (10, 35)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14 (7, 29)</t>
+          <t>15 (7, 30)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21 (11, 40)</t>
+          <t>22 (12, 41)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>17 (8, 34)</t>
+          <t>17 (8, 35)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1305,27 +1305,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3419 (1816, 7411)</t>
+          <t>3603 (1890, 7809)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>169 (97, 315)</t>
+          <t>182 (105, 335)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17 (9, 35)</t>
+          <t>18 (10, 36)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14 (7, 29)</t>
+          <t>15 (7, 31)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>20 (11, 39)</t>
+          <t>21 (11, 40)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16 (7, 33)</t>
+          <t>17 (8, 34)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,22 +1382,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3460 (1807, 7620)</t>
+          <t>3662 (1881, 8064)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>170 (96, 322)</t>
+          <t>183 (105, 344)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17 (9, 36)</t>
+          <t>18 (10, 37)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14 (7, 30)</t>
+          <t>15 (7, 32)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>20 (11, 38)</t>
+          <t>20 (11, 39)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>16 (7, 32)</t>
+          <t>16 (8, 33)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -1459,27 +1459,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3506 (1795, 7831)</t>
+          <t>3727 (1878, 8315)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>171 (96, 330)</t>
+          <t>185 (104, 354)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17 (9, 37)</t>
+          <t>18 (10, 38)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14 (7, 31)</t>
+          <t>15 (7, 33)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>19 (10, 38)</t>
+          <t>20 (11, 39)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15 (7, 32)</t>
+          <t>16 (7, 33)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3491 (1828, 6028)</t>
+          <t>3655 (1908, 6299)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>170 (102, 294)</t>
+          <t>183 (109, 309)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17 (8, 34)</t>
+          <t>17 (8, 33)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6 (3, 9)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,22 +1571,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>36 (21, 60)</t>
+          <t>35 (21, 58)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>30 (16, 52)</t>
+          <t>29 (16, 50)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>6 (3, 9)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3410 (1903, 5886)</t>
+          <t>3563 (2000, 6166)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>165 (99, 288)</t>
+          <t>180 (107, 305)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22 (12, 39)</t>
+          <t>21 (12, 39)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1648,22 +1648,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>35 (20, 59)</t>
+          <t>34 (20, 56)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>29 (15, 50)</t>
+          <t>28 (15, 49)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6 (3, 9)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3329 (1929, 5919)</t>
+          <t>3492 (2042, 6217)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>164 (98, 285)</t>
+          <t>180 (107, 304)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21 (11, 38)</t>
+          <t>20 (11, 37)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15 (7, 31)</t>
+          <t>15 (7, 30)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1725,22 +1725,22 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34 (20, 57)</t>
+          <t>33 (19, 55)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>28 (14, 49)</t>
+          <t>27 (14, 47)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6 (3, 9)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3265 (1930, 6004)</t>
+          <t>3434 (2048, 6335)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>164 (97, 284)</t>
+          <t>180 (108, 305)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>32 (18, 55)</t>
+          <t>32 (18, 54)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26 (13, 48)</t>
+          <t>26 (13, 46)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6 (3, 9)</t>
+          <t>5 (3, 9)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5 (3, 8)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3221 (1912, 6105)</t>
+          <t>3401 (2039, 6474)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>164 (97, 285)</t>
+          <t>181 (108, 307)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4 (2, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>31 (17, 54)</t>
+          <t>30 (17, 52)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25 (12, 46)</t>
+          <t>25 (12, 45)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1921,17 +1921,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3194 (1886, 6217)</t>
+          <t>3385 (2018, 6626)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>164 (96, 286)</t>
+          <t>181 (108, 310)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>19 (11, 35)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>29 (16, 52)</t>
+          <t>29 (16, 51)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24 (11, 44)</t>
+          <t>23 (11, 43)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3181 (1859, 6337)</t>
+          <t>3380 (1996, 6766)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>163 (95, 288)</t>
+          <t>181 (108, 313)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2033,17 +2033,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>28 (15, 50)</t>
+          <t>28 (15, 49)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>22 (11, 43)</t>
+          <t>22 (11, 42)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5 (3, 9)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3187 (1836, 6477)</t>
+          <t>3407 (1983, 6963)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>163 (95, 290)</t>
+          <t>182 (108, 316)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>19 (10, 36)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>26 (15, 49)</t>
+          <t>26 (15, 48)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3213 (1816, 6656)</t>
+          <t>3448 (1975, 7182)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>162 (94, 293)</t>
+          <t>182 (107, 321)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>25 (14, 47)</t>
+          <t>25 (14, 46)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20 (9, 40)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3238 (1798, 6819)</t>
+          <t>3493 (1963, 7395)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>162 (94, 297)</t>
+          <t>182 (107, 326)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18 (10, 36)</t>
+          <t>19 (10, 37)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15 (7, 31)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19 (9, 39)</t>
+          <t>19 (9, 38)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4 (2, 8)</t>
+          <t>4 (3, 8)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3270 (1775, 6984)</t>
+          <t>3539 (1953, 7610)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>162 (93, 301)</t>
+          <t>183 (107, 331)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18 (10, 37)</t>
+          <t>19 (10, 37)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15 (7, 31)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>23 (12, 44)</t>
+          <t>23 (13, 44)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18 (9, 37)</t>
+          <t>19 (9, 37)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3300 (1759, 7154)</t>
+          <t>3584 (1939, 7834)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>162 (92, 307)</t>
+          <t>184 (107, 338)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18 (10, 37)</t>
+          <t>19 (10, 38)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15 (7, 32)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>2 (1, 5)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2460,39 +2460,39 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3326 (1742, 7317)</t>
+          <t>3642 (1930, 8043)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>162 (92, 313)</t>
+          <t>185 (106, 346)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18 (10, 38)</t>
+          <t>19 (10, 39)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15 (7, 33)</t>
+          <t>16 (8, 33)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2 (1, 4)</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>22 (12, 42)</t>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>17 (8, 36)</t>
+          <t>18 (8, 36)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2537,22 +2537,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3355 (1725, 7510)</t>
+          <t>3690 (1921, 8272)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>163 (91, 319)</t>
+          <t>186 (106, 355)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18 (10, 39)</t>
+          <t>19 (10, 40)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15 (7, 33)</t>
+          <t>16 (8, 34)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2562,17 +2562,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2 (1, 4)</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>21 (11, 41)</t>
+          <t>21 (12, 41)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>188 (82, 397)</t>
+          <t>193 (86, 403)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>150 (53, 351)</t>
+          <t>156 (57, 358)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26 (11, 58)</t>
+          <t>26 (11, 59)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23 (12, 43)</t>
+          <t>24 (12, 44)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>188 (82, 397)</t>
+          <t>193 (86, 403)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>150 (53, 351)</t>
+          <t>156 (57, 358)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26 (11, 58)</t>
+          <t>26 (11, 59)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>23 (12, 43)</t>
+          <t>24 (12, 44)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175 (74, 379)</t>
+          <t>180 (78, 386)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>139 (47, 334)</t>
+          <t>144 (50, 342)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26 (10, 58)</t>
+          <t>26 (10, 59)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23 (12, 43)</t>
+          <t>23 (12, 44)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>175 (74, 379)</t>
+          <t>180 (78, 386)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>139 (47, 334)</t>
+          <t>144 (50, 342)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>26 (10, 58)</t>
+          <t>26 (10, 59)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>23 (12, 43)</t>
+          <t>23 (12, 44)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>163 (68, 362)</t>
+          <t>168 (71, 369)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>128 (42, 318)</t>
+          <t>133 (44, 325)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25 (10, 57)</t>
+          <t>25 (10, 58)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22 (11, 42)</t>
+          <t>23 (12, 43)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>163 (68, 362)</t>
+          <t>168 (71, 369)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>128 (42, 318)</t>
+          <t>133 (44, 325)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>25 (10, 57)</t>
+          <t>25 (10, 58)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>22 (11, 42)</t>
+          <t>23 (12, 43)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>152 (62, 345)</t>
+          <t>157 (65, 353)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>118 (37, 302)</t>
+          <t>123 (40, 310)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24 (9, 56)</t>
+          <t>24 (9, 57)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21 (11, 41)</t>
+          <t>22 (11, 42)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>152 (62, 345)</t>
+          <t>157 (65, 353)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>118 (37, 302)</t>
+          <t>123 (40, 310)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>24 (9, 56)</t>
+          <t>24 (9, 57)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21 (11, 41)</t>
+          <t>22 (11, 42)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>142 (57, 329)</t>
+          <t>148 (61, 337)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>109 (33, 287)</t>
+          <t>114 (36, 295)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23 (9, 55)</t>
+          <t>23 (9, 56)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20 (10, 40)</t>
+          <t>21 (11, 41)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>142 (57, 329)</t>
+          <t>148 (61, 337)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>109 (33, 287)</t>
+          <t>114 (36, 295)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23 (9, 55)</t>
+          <t>23 (9, 56)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20 (10, 40)</t>
+          <t>21 (11, 41)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>134 (54, 315)</t>
+          <t>139 (57, 323)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>102 (30, 274)</t>
+          <t>107 (33, 281)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22 (8, 53)</t>
+          <t>22 (8, 54)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19 (10, 38)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>134 (54, 315)</t>
+          <t>139 (57, 323)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>102 (30, 274)</t>
+          <t>107 (33, 281)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22 (8, 53)</t>
+          <t>22 (8, 54)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>19 (10, 38)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>126 (51, 301)</t>
+          <t>132 (54, 310)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>96 (28, 262)</t>
+          <t>101 (31, 269)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21 (8, 51)</t>
+          <t>21 (8, 53)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18 (9, 37)</t>
+          <t>19 (9, 38)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>126 (51, 301)</t>
+          <t>132 (54, 310)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>96 (28, 262)</t>
+          <t>101 (31, 269)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21 (8, 51)</t>
+          <t>21 (8, 53)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>18 (9, 37)</t>
+          <t>19 (9, 38)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>120 (49, 290)</t>
+          <t>126 (52, 298)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>92 (27, 251)</t>
+          <t>96 (30, 259)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20 (7, 49)</t>
+          <t>20 (7, 51)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17 (9, 35)</t>
+          <t>18 (9, 36)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>120 (49, 290)</t>
+          <t>126 (52, 298)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>92 (27, 251)</t>
+          <t>96 (30, 259)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>20 (7, 49)</t>
+          <t>20 (7, 51)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>17 (9, 35)</t>
+          <t>18 (9, 36)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>116 (47, 281)</t>
+          <t>122 (50, 289)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>88 (26, 243)</t>
+          <t>93 (29, 251)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19 (7, 48)</t>
+          <t>19 (7, 49)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16 (8, 34)</t>
+          <t>17 (8, 34)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>116 (47, 281)</t>
+          <t>122 (50, 289)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>88 (26, 243)</t>
+          <t>93 (29, 251)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19 (7, 48)</t>
+          <t>19 (7, 49)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16 (8, 34)</t>
+          <t>17 (8, 34)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>113 (46, 274)</t>
+          <t>118 (49, 282)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>86 (26, 236)</t>
+          <t>91 (28, 245)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18 (6, 46)</t>
+          <t>18 (6, 47)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>16 (7, 32)</t>
+          <t>16 (8, 33)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>113 (46, 274)</t>
+          <t>118 (49, 282)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>86 (26, 236)</t>
+          <t>91 (28, 245)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>18 (6, 46)</t>
+          <t>18 (6, 47)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16 (7, 32)</t>
+          <t>16 (8, 33)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>110 (45, 269)</t>
+          <t>116 (48, 277)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>85 (26, 232)</t>
+          <t>90 (28, 240)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17 (6, 44)</t>
+          <t>17 (6, 46)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15 (7, 31)</t>
+          <t>15 (7, 32)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>110 (45, 269)</t>
+          <t>116 (48, 277)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>85 (26, 232)</t>
+          <t>90 (28, 240)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17 (6, 44)</t>
+          <t>17 (6, 46)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>15 (7, 31)</t>
+          <t>15 (7, 32)</t>
         </is>
       </c>
     </row>
@@ -3371,17 +3371,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>108 (44, 265)</t>
+          <t>114 (48, 273)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>84 (26, 229)</t>
+          <t>89 (28, 237)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16 (6, 43)</t>
+          <t>16 (6, 44)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3391,17 +3391,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>108 (44, 265)</t>
+          <t>114 (48, 273)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>84 (26, 229)</t>
+          <t>89 (28, 237)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16 (6, 43)</t>
+          <t>16 (6, 44)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>107 (44, 263)</t>
+          <t>113 (47, 270)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>83 (26, 227)</t>
+          <t>89 (29, 235)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16 (6, 41)</t>
+          <t>16 (6, 43)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13 (6, 29)</t>
+          <t>14 (6, 29)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>107 (44, 263)</t>
+          <t>113 (47, 270)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>83 (26, 227)</t>
+          <t>89 (29, 235)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16 (6, 41)</t>
+          <t>16 (6, 43)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13 (6, 29)</t>
+          <t>14 (6, 29)</t>
         </is>
       </c>
     </row>
@@ -3495,17 +3495,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>106 (43, 262)</t>
+          <t>113 (47, 270)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>83 (26, 227)</t>
+          <t>89 (29, 235)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15 (5, 40)</t>
+          <t>15 (5, 42)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3515,17 +3515,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>106 (43, 262)</t>
+          <t>113 (47, 270)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>83 (26, 227)</t>
+          <t>89 (29, 235)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15 (5, 40)</t>
+          <t>15 (5, 42)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>214 (96, 446)</t>
+          <t>209 (94, 437)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>174 (64, 396)</t>
+          <t>171 (63, 390)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29 (11, 64)</t>
+          <t>27 (11, 61)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>26 (13, 48)</t>
+          <t>25 (13, 46)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>214 (96, 446)</t>
+          <t>209 (94, 437)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>174 (64, 396)</t>
+          <t>171 (63, 390)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>29 (11, 64)</t>
+          <t>27 (11, 61)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>26 (13, 48)</t>
+          <t>25 (13, 46)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>200 (87, 428)</t>
+          <t>196 (86, 419)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>162 (58, 378)</t>
+          <t>159 (56, 373)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28 (11, 64)</t>
+          <t>27 (11, 60)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25 (13, 47)</t>
+          <t>24 (13, 46)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>200 (87, 428)</t>
+          <t>196 (86, 419)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>162 (58, 378)</t>
+          <t>159 (56, 373)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>28 (11, 64)</t>
+          <t>27 (11, 60)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>25 (13, 47)</t>
+          <t>24 (13, 46)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>187 (80, 409)</t>
+          <t>183 (78, 402)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>150 (51, 360)</t>
+          <t>147 (50, 356)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27 (11, 63)</t>
+          <t>26 (10, 60)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>24 (12, 46)</t>
+          <t>24 (12, 45)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>187 (80, 409)</t>
+          <t>183 (78, 402)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>150 (51, 360)</t>
+          <t>147 (50, 356)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>27 (11, 63)</t>
+          <t>26 (10, 60)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>24 (12, 46)</t>
+          <t>24 (12, 45)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>176 (74, 391)</t>
+          <t>172 (72, 385)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>139 (46, 342)</t>
+          <t>136 (45, 340)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26 (10, 61)</t>
+          <t>25 (10, 59)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>24 (12, 45)</t>
+          <t>23 (12, 44)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>176 (74, 391)</t>
+          <t>172 (72, 385)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>139 (46, 342)</t>
+          <t>136 (45, 340)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>26 (10, 61)</t>
+          <t>25 (10, 59)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>24 (12, 45)</t>
+          <t>23 (12, 44)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>165 (68, 373)</t>
+          <t>162 (67, 369)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>129 (42, 326)</t>
+          <t>128 (41, 325)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25 (9, 60)</t>
+          <t>24 (9, 57)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23 (11, 44)</t>
+          <t>22 (11, 43)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>165 (68, 373)</t>
+          <t>162 (67, 369)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>129 (42, 326)</t>
+          <t>128 (41, 325)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25 (9, 60)</t>
+          <t>24 (9, 57)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>23 (11, 44)</t>
+          <t>22 (11, 43)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>155 (64, 357)</t>
+          <t>152 (63, 354)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>122 (39, 311)</t>
+          <t>120 (38, 310)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24 (9, 58)</t>
+          <t>23 (9, 56)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21 (11, 42)</t>
+          <t>21 (11, 41)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>155 (64, 357)</t>
+          <t>152 (63, 354)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>122 (39, 311)</t>
+          <t>120 (38, 310)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>24 (9, 58)</t>
+          <t>23 (9, 56)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>21 (11, 42)</t>
+          <t>21 (11, 41)</t>
         </is>
       </c>
     </row>
@@ -3929,17 +3929,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>147 (61, 342)</t>
+          <t>145 (61, 340)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>115 (37, 298)</t>
+          <t>114 (36, 298)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23 (8, 56)</t>
+          <t>22 (8, 54)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3949,17 +3949,17 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>147 (61, 342)</t>
+          <t>145 (61, 340)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>115 (37, 298)</t>
+          <t>114 (36, 298)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23 (8, 56)</t>
+          <t>22 (8, 54)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>141 (59, 330)</t>
+          <t>139 (58, 328)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>110 (36, 286)</t>
+          <t>109 (35, 287)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21 (8, 54)</t>
+          <t>21 (8, 52)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>19 (9, 39)</t>
+          <t>19 (10, 38)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>141 (59, 330)</t>
+          <t>139 (58, 328)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>110 (36, 286)</t>
+          <t>109 (35, 287)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21 (8, 54)</t>
+          <t>21 (8, 52)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>19 (9, 39)</t>
+          <t>19 (10, 38)</t>
         </is>
       </c>
     </row>
@@ -4053,17 +4053,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>136 (57, 319)</t>
+          <t>134 (57, 318)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>106 (35, 276)</t>
+          <t>105 (34, 278)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20 (7, 52)</t>
+          <t>20 (7, 50)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>136 (57, 319)</t>
+          <t>134 (57, 318)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>106 (35, 276)</t>
+          <t>105 (34, 278)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20 (7, 52)</t>
+          <t>20 (7, 50)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4115,17 +4115,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>132 (55, 310)</t>
+          <t>131 (55, 310)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>104 (34, 269)</t>
+          <t>103 (34, 271)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19 (7, 50)</t>
+          <t>19 (7, 49)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4135,17 +4135,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>132 (55, 310)</t>
+          <t>131 (55, 310)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>104 (34, 269)</t>
+          <t>103 (34, 271)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19 (7, 50)</t>
+          <t>19 (7, 49)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4177,17 +4177,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>129 (54, 303)</t>
+          <t>128 (54, 304)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>102 (34, 263)</t>
+          <t>101 (33, 266)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18 (6, 48)</t>
+          <t>18 (6, 47)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4197,17 +4197,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>129 (54, 303)</t>
+          <t>128 (54, 304)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>102 (34, 263)</t>
+          <t>101 (33, 266)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>18 (6, 48)</t>
+          <t>18 (6, 47)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>127 (53, 299)</t>
+          <t>126 (53, 300)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>101 (33, 259)</t>
+          <t>100 (33, 262)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17 (6, 46)</t>
+          <t>17 (6, 45)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>127 (53, 299)</t>
+          <t>126 (53, 300)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>101 (33, 259)</t>
+          <t>100 (33, 262)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>17 (6, 46)</t>
+          <t>17 (6, 45)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>125 (52, 295)</t>
+          <t>125 (53, 297)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100 (33, 257)</t>
+          <t>100 (33, 260)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14 (7, 31)</t>
+          <t>15 (7, 31)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>125 (52, 295)</t>
+          <t>125 (53, 297)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>100 (33, 257)</t>
+          <t>100 (33, 260)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14 (7, 31)</t>
+          <t>15 (7, 31)</t>
         </is>
       </c>
     </row>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>124 (52, 293)</t>
+          <t>124 (52, 296)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>99 (34, 256)</t>
+          <t>100 (33, 259)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16 (6, 43)</t>
+          <t>16 (6, 42)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>124 (52, 293)</t>
+          <t>124 (52, 296)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>99 (34, 256)</t>
+          <t>100 (33, 259)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>16 (6, 43)</t>
+          <t>16 (6, 42)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
